--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_20-06.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_20-06.xlsx
@@ -290,9 +290,6 @@
     <t>VONACIDAN 20 MG 20 F.C.TABS.</t>
   </si>
   <si>
-    <t>VOTRIAXONE 1 GM I.M VIAL</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -332,7 +329,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>26:0</t>
+    <t>23:0</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -2599,17 +2596,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2617,7 +2614,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2625,17 +2622,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2657,7 +2654,7 @@
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2677,13 +2674,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>168</v>
+        <v>-96</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2703,13 +2700,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>-96</v>
+        <v>96</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2729,13 +2726,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>96</v>
+        <v>-25</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2747,7 +2744,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2755,13 +2752,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2773,7 +2770,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2781,13 +2778,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>25</v>
+        <v>320</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2807,13 +2804,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2833,17 +2830,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2851,7 +2848,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2859,17 +2856,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2877,7 +2874,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2885,17 +2882,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2911,13 +2908,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -2929,7 +2926,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2937,17 +2934,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2955,7 +2952,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2963,17 +2960,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -2989,13 +2986,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3015,13 +3012,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3041,77 +3038,51 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="85" ht="25.5" customHeight="1">
-      <c r="A85" s="6">
-        <v>82</v>
-      </c>
-      <c t="s" r="B85" s="7">
-        <v>118</v>
-      </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c t="s" r="H85" s="8">
+    <row r="85" ht="26.25" customHeight="1">
+      <c r="K85" s="10">
+        <v>5114.8400000000001</v>
+      </c>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="11">
         <v>119</v>
       </c>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="9">
-        <v>65</v>
-      </c>
-      <c r="M85" s="9"/>
-      <c t="s" r="N85" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" ht="25.5" customHeight="1">
-      <c r="K86" s="10">
-        <v>5176.8400000000001</v>
-      </c>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="11">
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c t="s" r="F86" s="12">
         <v>120</v>
       </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c t="s" r="F87" s="12">
+      <c r="G86" s="12"/>
+      <c r="H86" s="13"/>
+      <c t="s" r="I86" s="14">
         <v>121</v>
       </c>
-      <c r="G87" s="12"/>
-      <c r="H87" s="13"/>
-      <c t="s" r="I87" s="14">
-        <v>122</v>
-      </c>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="254">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3362,13 +3333,10 @@
     <mergeCell ref="B84:G84"/>
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="I87:N87"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="I86:N86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
